--- a/errors.xlsx
+++ b/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,10 +458,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>SEC-YWL230829-JS008-KRSW002-BOA001.PDF</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NoRelatedPPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SEC-YWL230830-LH001.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NoRelatedPPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>\\192.168.29.200\f\service\0.样品管理部\01 蛋白库相关\06 蛋白编号\00 理化质检-P90000之后在这里查理化质检结果\SEC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>【SEC】WJL230822 SYMX05 SYDX-S014 HYB002 ZKSH019 AT-CX XLT002 SYSN001 ZKSH020 SYPX037 YS001 RSPL002 XJ002.pdf</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>NoRelatedPPT</t>
         </is>
